--- a/VectorMobileTests/src/test/resources/testDatas/fillRegisterFormWithForbiddenCharacter.xlsx
+++ b/VectorMobileTests/src/test/resources/testDatas/fillRegisterFormWithForbiddenCharacter.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeang\workspace\riotmobiletests\src\test\java\testDatas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeang\workspace\vector-automated-tests.git\VectorMobileTests\src\test\resources\testDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -53,18 +53,12 @@
     <t>@</t>
   </si>
   <si>
-    <t>"&amp;)ç_'</t>
-  </si>
-  <si>
     <t>riotuser4</t>
   </si>
   <si>
     <t>riotuser4@gmail.com</t>
   </si>
   <si>
-    <t>*$::;,#</t>
-  </si>
-  <si>
     <t xml:space="preserve">            </t>
   </si>
   <si>
@@ -75,6 +69,12 @@
   </si>
   <si>
     <t>%£$</t>
+  </si>
+  <si>
+    <t>&amp;)ç_'</t>
+  </si>
+  <si>
+    <t>\*$::;,#</t>
   </si>
 </sst>
 </file>
@@ -406,7 +406,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,7 +436,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -461,24 +461,24 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>0</v>
@@ -489,30 +489,30 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
